--- a/Trainig_stability_assessment/Results/CV_Results_test.xlsx
+++ b/Trainig_stability_assessment/Results/CV_Results_test.xlsx
@@ -28,10 +28,10 @@
     <t>f_beta</t>
   </si>
   <si>
-    <t>0.9291073813141777\pm0.010362128178736094</t>
-  </si>
-  <si>
-    <t>0.9649905603904775\pm0.008787096470469017</t>
+    <t>0.9505327245053273\pm0.010096270290275204</t>
+  </si>
+  <si>
+    <t>0.9668949771689497\pm0.005707762557077626</t>
   </si>
 </sst>
 </file>
